--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.96390911643491</v>
+        <v>98.14539336138108</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.7783923286418</v>
+        <v>134.2868570661537</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.2058580432747</v>
+        <v>121.4707079005835</v>
       </c>
       <c r="AD2" t="n">
-        <v>80963.90911643491</v>
+        <v>98145.39336138108</v>
       </c>
       <c r="AE2" t="n">
-        <v>110778.3923286418</v>
+        <v>134286.8570661537</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.554916847221826e-06</v>
+        <v>1.089165477102112e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.022916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>100205.8580432747</v>
+        <v>121470.7079005835</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.4223167707142</v>
+        <v>76.51846016108875</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.3042353332594</v>
+        <v>104.6959329485737</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.54467322428309</v>
+        <v>94.70390004965306</v>
       </c>
       <c r="AD3" t="n">
-        <v>59422.3167707142</v>
+        <v>76518.46016108875</v>
       </c>
       <c r="AE3" t="n">
-        <v>81304.23533325939</v>
+        <v>104695.9329485737</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.205307375590345e-06</v>
+        <v>1.327096406533363e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.302083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73544.67322428309</v>
+        <v>94703.90004965306</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.23389283526821</v>
+        <v>75.89814774468184</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.04642539210496</v>
+        <v>103.8471941341938</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.31146830207383</v>
+        <v>93.93616367650489</v>
       </c>
       <c r="AD2" t="n">
-        <v>59233.89283526821</v>
+        <v>75898.14774468183</v>
       </c>
       <c r="AE2" t="n">
-        <v>81046.42539210497</v>
+        <v>103847.1941341938</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.016591441247682e-06</v>
+        <v>1.319995067525818e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.487499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>73311.46830207383</v>
+        <v>93936.16367650489</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.73138762914994</v>
+        <v>75.39564253856358</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.35887560012922</v>
+        <v>103.159644342218</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.68953729726184</v>
+        <v>93.31423267169288</v>
       </c>
       <c r="AD3" t="n">
-        <v>58731.38762914994</v>
+        <v>75395.64253856358</v>
       </c>
       <c r="AE3" t="n">
-        <v>80358.87560012922</v>
+        <v>103159.644342218</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.120873982102336e-06</v>
+        <v>1.335261639206941e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.447916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>72689.53729726184</v>
+        <v>93314.23267169288</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.90374673661859</v>
+        <v>87.52366505966971</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.38187845442897</v>
+        <v>119.7537398061788</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.99245005459632</v>
+        <v>108.3246109545378</v>
       </c>
       <c r="AD2" t="n">
-        <v>71903.74673661859</v>
+        <v>87523.66505966971</v>
       </c>
       <c r="AE2" t="n">
-        <v>98381.87845442897</v>
+        <v>119753.7398061788</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.656119437946312e-06</v>
+        <v>1.184496178764334e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88992.45005459632</v>
+        <v>108324.6109545378</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.13890281113873</v>
+        <v>84.03261763722892</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.28469996731269</v>
+        <v>114.9771347086552</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.43156368975339</v>
+        <v>104.0038783435129</v>
       </c>
       <c r="AD2" t="n">
-        <v>60138.90281113873</v>
+        <v>84032.61763722892</v>
       </c>
       <c r="AE2" t="n">
-        <v>82284.69996731268</v>
+        <v>114977.1347086552</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.465294807494288e-06</v>
+        <v>1.279354898362774e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.964583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>74431.56368975338</v>
+        <v>104003.8783435129</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.98151653447091</v>
+        <v>108.4873592453018</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.6437041592116</v>
+        <v>148.4371910438609</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.4159541482628</v>
+        <v>134.2705538635813</v>
       </c>
       <c r="AD2" t="n">
-        <v>85981.51653447091</v>
+        <v>108487.3592453019</v>
       </c>
       <c r="AE2" t="n">
-        <v>117643.7041592116</v>
+        <v>148437.1910438609</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.722172140788299e-06</v>
+        <v>1.062431233753105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.420833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>106415.9541482628</v>
+        <v>134270.5538635813</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.78033120188859</v>
+        <v>77.72869650676901</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.16233058935964</v>
+        <v>106.351831708592</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.22543447699479</v>
+        <v>96.20176215608421</v>
       </c>
       <c r="AD2" t="n">
-        <v>60780.33120188859</v>
+        <v>77728.69650676902</v>
       </c>
       <c r="AE2" t="n">
-        <v>83162.33058935964</v>
+        <v>106351.831708592</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.831352910573168e-06</v>
+        <v>1.287510832083663e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.527083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>75225.43447699479</v>
+        <v>96201.76215608421</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.93437052533712</v>
+        <v>75.71214362962536</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.63660575366575</v>
+        <v>103.5926950980512</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.94076127474165</v>
+        <v>93.70595367118003</v>
       </c>
       <c r="AD3" t="n">
-        <v>58934.37052533712</v>
+        <v>75712.14362962535</v>
       </c>
       <c r="AE3" t="n">
-        <v>80636.60575366575</v>
+        <v>103592.6950980512</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.143783201182448e-06</v>
+        <v>1.33305961577556e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.408333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72940.76127474164</v>
+        <v>93705.95367118003</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.09017431035</v>
+        <v>122.3110089074605</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.9477921582118</v>
+        <v>167.3513183679985</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.8776870821023</v>
+        <v>151.3795434220536</v>
       </c>
       <c r="AD2" t="n">
-        <v>100090.17431035</v>
+        <v>122311.0089074605</v>
       </c>
       <c r="AE2" t="n">
-        <v>136947.7921582118</v>
+        <v>167351.3183679985</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.034711068579244e-06</v>
+        <v>9.66902467148119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.179166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>123877.6870821023</v>
+        <v>151379.5434220536</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.96181765122708</v>
+        <v>75.42824329517266</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.67416012219007</v>
+        <v>103.2042501356545</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.97473150704194</v>
+        <v>93.35458135080839</v>
       </c>
       <c r="AD2" t="n">
-        <v>58961.81765122708</v>
+        <v>75428.24329517267</v>
       </c>
       <c r="AE2" t="n">
-        <v>80674.16012219008</v>
+        <v>103204.2501356545</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.879857033099125e-06</v>
+        <v>1.318519530707954e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.647916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72974.73150704194</v>
+        <v>93354.58135080838</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.82926710238377</v>
+        <v>75.29569274632935</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.49279861354525</v>
+        <v>103.0228886270096</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.81067888623963</v>
+        <v>93.19052873000606</v>
       </c>
       <c r="AD3" t="n">
-        <v>58829.26710238377</v>
+        <v>75295.69274632935</v>
       </c>
       <c r="AE3" t="n">
-        <v>80492.79861354525</v>
+        <v>103022.8886270096</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.924949024547036e-06</v>
+        <v>1.325214984382599e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.629166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>72810.67888623964</v>
+        <v>93190.52873000606</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.94315961416423</v>
+        <v>75.66017185745741</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.64863137274622</v>
+        <v>103.5215850265383</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.95163918561515</v>
+        <v>93.64163024508869</v>
       </c>
       <c r="AD2" t="n">
-        <v>58943.15961416423</v>
+        <v>75660.17185745742</v>
       </c>
       <c r="AE2" t="n">
-        <v>80648.63137274623</v>
+        <v>103521.5850265383</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.009301894195633e-06</v>
+        <v>1.324766021264023e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.522916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72951.63918561515</v>
+        <v>93641.63024508869</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.74744570047738</v>
+        <v>75.46445794377057</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.3808469617515</v>
+        <v>103.2538006155436</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.7094117429679</v>
+        <v>93.39940280244144</v>
       </c>
       <c r="AD3" t="n">
-        <v>58747.44570047738</v>
+        <v>75464.45794377057</v>
       </c>
       <c r="AE3" t="n">
-        <v>80380.84696175151</v>
+        <v>103253.8006155436</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.062166946909477e-06</v>
+        <v>1.332539523181275e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.502083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72709.4117429679</v>
+        <v>93399.40280244144</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.77466820982909</v>
+        <v>83.93865862648721</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.36404693510445</v>
+        <v>114.8485758449795</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.64439052588551</v>
+        <v>103.8875889573529</v>
       </c>
       <c r="AD2" t="n">
-        <v>66774.66820982909</v>
+        <v>83938.65862648722</v>
       </c>
       <c r="AE2" t="n">
-        <v>91364.04693510446</v>
+        <v>114848.5758449795</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.104989730896147e-06</v>
+        <v>1.172607630946629e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.779166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>82644.39052588551</v>
+        <v>103887.5889573529</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.35454673967575</v>
+        <v>76.34794495574167</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.21150938698987</v>
+        <v>104.462626522018</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.46079691218382</v>
+        <v>94.49286006100016</v>
       </c>
       <c r="AD3" t="n">
-        <v>59354.54673967574</v>
+        <v>76347.94495574167</v>
       </c>
       <c r="AE3" t="n">
-        <v>81211.50938698987</v>
+        <v>104462.626522018</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.169342211477934e-06</v>
+        <v>1.326595221577318e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.341666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>73460.79691218383</v>
+        <v>94492.86006100016</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.71120277282434</v>
+        <v>75.90282123922201</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.69950190609723</v>
+        <v>103.8535886156037</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.90221611016952</v>
+        <v>93.9419478775837</v>
       </c>
       <c r="AD2" t="n">
-        <v>59711.20277282434</v>
+        <v>75902.821239222</v>
       </c>
       <c r="AE2" t="n">
-        <v>81699.50190609723</v>
+        <v>103853.5886156037</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.617386202090435e-06</v>
+        <v>1.294059627287509e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.845833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>73902.21611016952</v>
+        <v>93941.94787758371</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.62638932812843</v>
+        <v>75.81800779452607</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.58345640935923</v>
+        <v>103.7375431188657</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.79724583276929</v>
+        <v>93.83697760018346</v>
       </c>
       <c r="AD3" t="n">
-        <v>59626.38932812843</v>
+        <v>75818.00779452607</v>
       </c>
       <c r="AE3" t="n">
-        <v>81583.45640935923</v>
+        <v>103737.5431188657</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.656521429636481e-06</v>
+        <v>1.299936504194774e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.829166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>73797.24583276929</v>
+        <v>93836.97760018345</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.17571208474436</v>
+        <v>85.80684472288445</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.0175052082274</v>
+        <v>117.4047104806226</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.85372927259279</v>
+        <v>106.1997696909285</v>
       </c>
       <c r="AD2" t="n">
-        <v>70175.71208474436</v>
+        <v>85806.84472288445</v>
       </c>
       <c r="AE2" t="n">
-        <v>96017.50520822741</v>
+        <v>117404.7104806226</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.989957402120584e-06</v>
+        <v>1.225457118920593e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.320833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>86853.72927259278</v>
+        <v>106199.7696909285</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.40984868529262</v>
+        <v>97.3292881009949</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.810837702018</v>
+        <v>133.1702258448709</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.09415424417107</v>
+        <v>120.4606463958578</v>
       </c>
       <c r="AD2" t="n">
-        <v>74409.84868529261</v>
+        <v>97329.28810099491</v>
       </c>
       <c r="AE2" t="n">
-        <v>101810.837702018</v>
+        <v>133170.2258448708</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.246808782139901e-06</v>
+        <v>1.132299577614129e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.929166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>92094.15424417106</v>
+        <v>120460.6463958578</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.238844983781</v>
+        <v>148.2352774198472</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.1478481533156</v>
+        <v>202.8220462446368</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.5772465050512</v>
+        <v>183.4649948136361</v>
       </c>
       <c r="AD2" t="n">
-        <v>119238.844983781</v>
+        <v>148235.2774198472</v>
       </c>
       <c r="AE2" t="n">
-        <v>163147.8481533155</v>
+        <v>202822.0462446368</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.126541852949908e-06</v>
+        <v>8.354602903068287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.477083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>147577.2465050512</v>
+        <v>183464.9948136361</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.15912666597047</v>
+        <v>75.75351794441264</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.94412702082127</v>
+        <v>103.6493052608491</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.21893314376875</v>
+        <v>93.75716103949338</v>
       </c>
       <c r="AD2" t="n">
-        <v>59159.12666597047</v>
+        <v>75753.51794441264</v>
       </c>
       <c r="AE2" t="n">
-        <v>80944.12702082127</v>
+        <v>103649.3052608491</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.91382761134793e-06</v>
+        <v>1.316911781002086e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.595833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>73218.93314376875</v>
+        <v>93757.16103949338</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.00217084449053</v>
+        <v>75.5965621229327</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.72937314147036</v>
+        <v>103.4345513814982</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.02467507325407</v>
+        <v>93.56290296897872</v>
       </c>
       <c r="AD3" t="n">
-        <v>59002.17084449053</v>
+        <v>75596.56212293269</v>
       </c>
       <c r="AE3" t="n">
-        <v>80729.37314147037</v>
+        <v>103434.5513814982</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.962450447570091e-06</v>
+        <v>1.324095225492888e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.577083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>73024.67507325407</v>
+        <v>93562.90296897871</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.72526108609127</v>
+        <v>79.78322676750433</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.82346946117515</v>
+        <v>109.1629306508067</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.63259798981693</v>
+        <v>98.74457376065702</v>
       </c>
       <c r="AD2" t="n">
-        <v>62725.26108609128</v>
+        <v>79783.22676750433</v>
       </c>
       <c r="AE2" t="n">
-        <v>85823.46946117515</v>
+        <v>109162.9306508067</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.589054844178466e-06</v>
+        <v>1.247275931825254e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.595833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>77632.59798981693</v>
+        <v>98744.57376065702</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.18753974260061</v>
+        <v>76.07491322342146</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.98300304576308</v>
+        <v>104.0890524605478</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.25409889545297</v>
+        <v>94.15493938364202</v>
       </c>
       <c r="AD3" t="n">
-        <v>59187.53974260061</v>
+        <v>76074.91322342146</v>
       </c>
       <c r="AE3" t="n">
-        <v>80983.00304576308</v>
+        <v>104089.0524605478</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.154422740338331e-06</v>
+        <v>1.329376905948715e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>73254.09889545297</v>
+        <v>94154.93938364202</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.4951620403975</v>
+        <v>201.988230545682</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.8060259517164</v>
+        <v>276.369208124293</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.0645385627157</v>
+        <v>249.9929187876113</v>
       </c>
       <c r="AD2" t="n">
-        <v>166495.1620403975</v>
+        <v>201988.230545682</v>
       </c>
       <c r="AE2" t="n">
-        <v>227806.0259517164</v>
+        <v>276369.208124293</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.876573761416823e-06</v>
+        <v>6.462017497731677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>206064.5385627157</v>
+        <v>249992.9187876113</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.041417751572</v>
+        <v>84.84124835718293</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.46551366004752</v>
+        <v>116.0835389339653</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.4498576195369</v>
+        <v>105.0046889024079</v>
       </c>
       <c r="AD2" t="n">
-        <v>69041.41775157199</v>
+        <v>84841.24835718294</v>
       </c>
       <c r="AE2" t="n">
-        <v>94465.51366004752</v>
+        <v>116083.5389339653</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.255128692090413e-06</v>
+        <v>1.256353501965837e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.120833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>85449.8576195369</v>
+        <v>105004.6889024079</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.32436394966068</v>
+        <v>75.65680625572283</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.17021196212055</v>
+        <v>103.5169800617652</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.42344085558271</v>
+        <v>93.6374647716904</v>
       </c>
       <c r="AD2" t="n">
-        <v>59324.36394966068</v>
+        <v>75656.80625572283</v>
       </c>
       <c r="AE2" t="n">
-        <v>81170.21196212055</v>
+        <v>103516.9800617652</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.751798908374988e-06</v>
+        <v>1.306565418223742e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.741666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73423.44085558271</v>
+        <v>93637.4647716904</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.22133744276401</v>
+        <v>75.55377974882616</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.0292465501759</v>
+        <v>103.3760146498205</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.29592898470781</v>
+        <v>93.50995290081552</v>
       </c>
       <c r="AD3" t="n">
-        <v>59221.33744276401</v>
+        <v>75553.77974882616</v>
       </c>
       <c r="AE3" t="n">
-        <v>81029.2465501759</v>
+        <v>103376.0146498205</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.793305688430878e-06</v>
+        <v>1.312762009805725e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.725</v>
       </c>
       <c r="AH3" t="n">
-        <v>73295.92898470782</v>
+        <v>93509.95290081552</v>
       </c>
     </row>
   </sheetData>
